--- a/biology/Histoire de la zoologie et de la botanique/Claude_Lemaire/Claude_Lemaire.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Lemaire/Claude_Lemaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Lemaire (21 février 1921 - 5 février 2004) est un entomologiste français, qui
-était spécialisé dans les lépidoptères Saturniidae[1].
+était spécialisé dans les lépidoptères Saturniidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diplôme d'Études Supérieures de Droit civil de la Faculté de Droit de Paris
 Diplôme d'Études Supérieures d'Économie politique de la Faculté de Droit de Paris
@@ -545,7 +559,9 @@
           <t>Activités professionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1949-1956 : Banque. Chef de contentieux
 1957-1959 : Commissaire priseur à Drouot (Paris)</t>
@@ -578,15 +594,125 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publications
-Claude Lemaire publia une centaine de travaux entomologiques[2]
-Récompenses
-Il est président de la Société entomologique de France en 1972, président de l'Association for Tropical Lepidoptera en 1992 et deux fois vice-président de la Lepidopterist's Society.
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Lemaire publia une centaine de travaux entomologiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Lemaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Lemaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités entomologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est président de la Société entomologique de France en 1972, président de l'Association for Tropical Lepidoptera en 1992 et deux fois vice-président de la Lepidopterist's Society.
 Il reçoit les prix Constant (1971) et Réaumur (2003) de la Société entomologique de France. En 1999 il obtient la médaille Karl Jordan de la Lepidopterist's Society.
-Genres, espèces et variétés décrits
-Dans leur nécrologie, Naumann, Brosch &amp; Nässig, citent 319 taxa décrits directement par lui ou en collaboration avec d'autres auteurs[3]. Une autre liste référence 335 taxa[4].
-Genres
-10 genres sont attribués à Claude Lemaire :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Lemaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Lemaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités entomologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres, espèces et variétés décrits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur nécrologie, Naumann, Brosch &amp; Nässig, citent 319 taxa décrits directement par lui ou en collaboration avec d'autres auteurs. Une autre liste référence 335 taxa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claude_Lemaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Lemaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Activités entomologiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10 genres sont attribués à Claude Lemaire :
 Arias Lemaire, 1995
 Automeropsis Lemaire, 1969
 Citheronioides Lemaire, 1988
